--- a/annotation label/Annotation_label_data.xlsx
+++ b/annotation label/Annotation_label_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">PROJECT</t>
   </si>
@@ -23,12 +23,12 @@
     <t xml:space="preserve">TYPE_REF</t>
   </si>
   <si>
+    <t xml:space="preserve">FAMILY</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOCAL_NAME</t>
   </si>
   <si>
-    <t xml:space="preserve">FAMILY</t>
-  </si>
-  <si>
     <t xml:space="preserve">GENUS</t>
   </si>
   <si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">AUTHOR_OF_INFRASPECIFIC_RANK</t>
   </si>
   <si>
+    <t xml:space="preserve">ABBREVIATION</t>
+  </si>
+  <si>
     <t xml:space="preserve">IDENTIFIED_BY</t>
   </si>
   <si>
@@ -68,34 +71,112 @@
     <t xml:space="preserve">COLLECTOR_NUMBER</t>
   </si>
   <si>
-    <t xml:space="preserve">Litsea greenmaniana C.K. Allen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lauraceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Litsea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">greenmaniana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.K. Allen</t>
+    <t xml:space="preserve">Examined for the Revision for the Fern Flora of Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISOTYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC. Monogr. Phanerog. 6: 409. 1889.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ophioglossaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ophioglossum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">petiolatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hook.</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">Det.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jin-Long Zhang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KFBG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-1-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The specimen is extremely close to Jinlong Zhang #446</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jinlong Zhang</t>
   </si>
   <si>
-    <t xml:space="preserve">KFBG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-01-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change to Families according to APGIII</t>
+    <t xml:space="preserve">Botrychium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yunnanense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verified by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-1-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caryophyllaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dianthus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chinensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psammosilene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tunicoides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W. C. Wu et. C. Y. Wu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examined for the Barcoding of Plants in Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perkins, Mongr. Phanerog. 6: 409. 1889.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 Jan 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revision for the Fern Flora of Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnoliaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APGIII Family, The Plantlist Website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orchidaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated the family according to APGIII</t>
   </si>
 </sst>
 </file>
@@ -482,1370 +563,1027 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2"/>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-    </row>
-    <row r="3">
-      <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3"/>
+      <c r="R3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4"/>
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E4"/>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4"/>
+      <c r="R4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E5"/>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O5" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
+      <c r="S5"/>
     </row>
     <row r="6">
-      <c r="A6"/>
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
       <c r="B6"/>
       <c r="C6"/>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
+      <c r="D6"/>
+      <c r="E6"/>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N6"/>
       <c r="O6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6"/>
+      <c r="R6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E7"/>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N7"/>
       <c r="O7" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
+      <c r="S7"/>
     </row>
     <row r="8">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E8"/>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N8"/>
       <c r="O8" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
+      <c r="S8"/>
     </row>
     <row r="9">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
       <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E9"/>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N9"/>
       <c r="O9" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9"/>
+      <c r="R9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10"/>
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E10"/>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O10" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
+      <c r="S10"/>
     </row>
     <row r="11">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
       <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E11"/>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O11" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="P11"/>
       <c r="Q11"/>
-      <c r="R11"/>
+      <c r="R11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12"/>
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E12"/>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O12" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
+      <c r="S12"/>
     </row>
     <row r="13">
-      <c r="A13"/>
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E13"/>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O13" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13"/>
+      <c r="R13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E14"/>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" t="s">
-        <v>25</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="M14"/>
       <c r="N14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
+      <c r="S14"/>
     </row>
     <row r="15">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E15"/>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O15" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15"/>
+        <v>37</v>
+      </c>
+      <c r="P15" t="s">
+        <v>52</v>
+      </c>
       <c r="Q15"/>
-      <c r="R15"/>
+      <c r="R15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E16"/>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O16" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16"/>
+        <v>37</v>
+      </c>
+      <c r="P16" t="s">
+        <v>52</v>
+      </c>
       <c r="Q16"/>
-      <c r="R16"/>
+      <c r="R16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
+      <c r="D17"/>
+      <c r="E17"/>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O17" t="s">
-        <v>27</v>
-      </c>
-      <c r="P17"/>
+        <v>37</v>
+      </c>
+      <c r="P17" t="s">
+        <v>52</v>
+      </c>
       <c r="Q17"/>
       <c r="R17"/>
+      <c r="S17"/>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
+      <c r="D18"/>
+      <c r="E18"/>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O18" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18"/>
+      <c r="S18"/>
     </row>
     <row r="19">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>19</v>
-      </c>
+      <c r="D19"/>
+      <c r="E19"/>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19"/>
+        <v>37</v>
+      </c>
+      <c r="P19" t="s">
+        <v>52</v>
+      </c>
       <c r="Q19"/>
       <c r="R19"/>
+      <c r="S19"/>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
-        <v>19</v>
-      </c>
+      <c r="D20"/>
+      <c r="E20"/>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O20" t="s">
-        <v>27</v>
-      </c>
-      <c r="P20"/>
+        <v>37</v>
+      </c>
+      <c r="P20" t="s">
+        <v>52</v>
+      </c>
       <c r="Q20"/>
-      <c r="R20"/>
+      <c r="R20" t="s">
+        <v>32</v>
+      </c>
+      <c r="S20" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
+      <c r="D21"/>
+      <c r="E21"/>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O21" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21"/>
+      <c r="S21"/>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E22"/>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L22" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" t="s">
-        <v>26</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="M22"/>
+      <c r="N22"/>
       <c r="O22" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="P22"/>
       <c r="Q22"/>
-      <c r="R22"/>
+      <c r="R22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S22" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E23"/>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H23" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L23" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O23" t="s">
-        <v>27</v>
-      </c>
-      <c r="P23"/>
+        <v>37</v>
+      </c>
+      <c r="P23" t="s">
+        <v>54</v>
+      </c>
       <c r="Q23"/>
-      <c r="R23"/>
-    </row>
-    <row r="24">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" t="s">
-        <v>24</v>
-      </c>
-      <c r="M24" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" t="s">
-        <v>26</v>
-      </c>
-      <c r="O24" t="s">
-        <v>27</v>
-      </c>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-    </row>
-    <row r="25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" t="s">
-        <v>24</v>
-      </c>
-      <c r="M25" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25" t="s">
-        <v>26</v>
-      </c>
-      <c r="O25" t="s">
-        <v>27</v>
-      </c>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26" t="s">
-        <v>25</v>
-      </c>
-      <c r="N26" t="s">
-        <v>26</v>
-      </c>
-      <c r="O26" t="s">
-        <v>27</v>
-      </c>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-    </row>
-    <row r="27">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27" t="s">
-        <v>25</v>
-      </c>
-      <c r="N27" t="s">
-        <v>26</v>
-      </c>
-      <c r="O27" t="s">
-        <v>27</v>
-      </c>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-    </row>
-    <row r="28">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" t="s">
-        <v>25</v>
-      </c>
-      <c r="N28" t="s">
-        <v>26</v>
-      </c>
-      <c r="O28" t="s">
-        <v>27</v>
-      </c>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-    </row>
-    <row r="29">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" t="s">
-        <v>23</v>
-      </c>
-      <c r="L29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" t="s">
-        <v>25</v>
-      </c>
-      <c r="N29" t="s">
-        <v>26</v>
-      </c>
-      <c r="O29" t="s">
-        <v>27</v>
-      </c>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-    </row>
-    <row r="30">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L30" t="s">
-        <v>24</v>
-      </c>
-      <c r="M30" t="s">
-        <v>25</v>
-      </c>
-      <c r="N30" t="s">
-        <v>26</v>
-      </c>
-      <c r="O30" t="s">
-        <v>27</v>
-      </c>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-    </row>
-    <row r="31">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" t="s">
-        <v>24</v>
-      </c>
-      <c r="M31" t="s">
-        <v>25</v>
-      </c>
-      <c r="N31" t="s">
-        <v>26</v>
-      </c>
-      <c r="O31" t="s">
-        <v>27</v>
-      </c>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-    </row>
-    <row r="32">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" t="s">
-        <v>23</v>
-      </c>
-      <c r="L32" t="s">
-        <v>24</v>
-      </c>
-      <c r="M32" t="s">
-        <v>25</v>
-      </c>
-      <c r="N32" t="s">
-        <v>26</v>
-      </c>
-      <c r="O32" t="s">
-        <v>27</v>
-      </c>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
+      <c r="R23" t="s">
+        <v>32</v>
+      </c>
+      <c r="S23" t="n">
+        <v>224</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
